--- a/homework 09.11.19.xlsx
+++ b/homework 09.11.19.xlsx
@@ -18,15 +18,67 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>Язык</t>
+  </si>
+  <si>
+    <t>Фреймфорк</t>
+  </si>
+  <si>
+    <t>Библиотека</t>
+  </si>
+  <si>
+    <t>Область применения</t>
+  </si>
+  <si>
+    <t>javascript</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>Ember</t>
+  </si>
+  <si>
+    <t>Vue</t>
+  </si>
+  <si>
+    <t>Backbone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> frontend</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +97,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +144,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +184,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +224,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +406,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/homework 09.11.19.xlsx
+++ b/homework 09.11.19.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>Язык</t>
   </si>
@@ -51,14 +51,256 @@
     <t>Backbone</t>
   </si>
   <si>
-    <t xml:space="preserve"> frontend</t>
+    <t>Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spring</t>
+  </si>
+  <si>
+    <t>Struts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hibernate</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Один из самых популярных фреймворков для создания веб-приложений на Java. Фреймворк — это что-то похожее на библиотеку (возможно этот термин вам более знаком), но есть один момент. Грубо говоря, используя библиотеку, вы просто создаете объекты классов, которые в ней есть, вызываете нужные вам методы, и таким образом получаете нужный вам результат.</t>
+  </si>
+  <si>
+    <t>Библиотека для разработки пользовательских интерфейсов.</t>
+  </si>
+  <si>
+    <t>фреймворк с открытым исходным кодом для создания пользовательских интерфейсов. Легко интегрируется в проекты с использованием других JavaScript-библиотек.</t>
+  </si>
+  <si>
+    <t> Предназначен для разработки одностраничных приложений.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Свободный JavaScript каркас веб-приложений, реализующий MVC шаблон, предназначенный для упрощения создания масштабируемых одностраничных веб-приложений</t>
+  </si>
+  <si>
+    <t>Предназначена для разработки веб-приложений с поддержкой RESTful JSON интерфейса.</t>
+  </si>
+  <si>
+    <t>Технология Hibernate заботится о связи Java классов с таблицами базы данных (и типов данных Java в типы данных SQL), но также предоставляет средства для автоматического построения запросов и извлечения данных и может значительно уменьшить время разработки, которое обычно тратится на ручное написание SQL и JDBC кода. Hibernate генерирует SQL вызовы и освобождает разработчика от ручной обработки результирующего набора данных и конвертации объектов, сохраняя приложение портируемым во все SQL базы данных.</t>
+  </si>
+  <si>
+    <t>Laravel</t>
+  </si>
+  <si>
+    <t>CodeIgniter</t>
+  </si>
+  <si>
+    <t>Веб-фреймворк с открытым кодом, предназначенный для разработки с использованием архитектурной модели MVC.</t>
+  </si>
+  <si>
+    <t>Использует различные компоненты для решения конкретных задач разработки. Этот подход популярен среди разработчиков, потому что он позволяет создавать масштабируемые веб-приложения с меньшими размерами.</t>
+  </si>
+  <si>
+    <t>Фреймворк с открытым исходным кодом для создания Java EE веб-приложений.</t>
+  </si>
+  <si>
+    <t>Symfony</t>
+  </si>
+  <si>
+    <t>Является очень гибким. Он включает в себя пакетную и компонентную систему, которая позволяет вам выбирать нужные функции PHP или просто использовать всю инфраструктуру.</t>
+  </si>
+  <si>
+    <t>Zend</t>
+  </si>
+  <si>
+    <t>Позволяет  сосредоточиться только на тех компонентах и ​​функциях, которыенужны, и игнорировать всё остальное. Благодаря такому подходу и объектно-ориентированной природе фреймворка можно повторно использовать большой объём написанного кода. Кроме того, довольно просто интегрировать платформу с внешними библиотеками, чтобы  больше расширить её функциональность.</t>
+  </si>
+  <si>
+    <t>Phalcon</t>
+  </si>
+  <si>
+    <t>Лёгок в использовании ресурсов и использует архитектуру MVC. Кроме того, он уникален тем, что сам фреймворк практически не имеет файлов после его установки. Вместо этого просто добавляются модули и библиотеки, которые нужны, когда они нужны, что делает процесс разработки очень простым.</t>
+  </si>
+  <si>
+    <t>FuelPHP</t>
+  </si>
+  <si>
+    <t>FuelPHP - это платформа веб-приложений с открытым исходным кодом</t>
+  </si>
+  <si>
+    <t>Goutte</t>
+  </si>
+  <si>
+    <t>Используется для скрапинга веб-сайтов и извлечения данных. Лицензия — MIT. Предоставляет обширный API для обхода сайтов/блогов и извлечения данных из HTML/XML.</t>
+  </si>
+  <si>
+    <t>GoogChart</t>
+  </si>
+  <si>
+    <t>GoogChart является классом PHP для создания динамичных диаграмм с помощью Google Charts. Не распространяется на весь API Google Charts, но делает их очень простыми в использовании.</t>
+  </si>
+  <si>
+    <t>GifCreator</t>
+  </si>
+  <si>
+    <t> Это класс PHP, который генерирует анимированные GIF из нескольких изображений. </t>
+  </si>
+  <si>
+    <t>PHPGeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Простая библиотека для измерения расстояния между двумя координатами с высокой точностью. Можно интегрировать ее с любым приложением, связанным с картами или местоположениями.
+</t>
+  </si>
+  <si>
+    <t>Geocoder</t>
+  </si>
+  <si>
+    <t>Используется для geo aware приложение. Это расширяемая PHP-библиотека делится на 2 части: Provider и HttpAdapter. Она также предлагает дополнительный уровень абстракции для геокодирования.</t>
+  </si>
+  <si>
+    <t>Jupyter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предоставляет расширенную интроспекцию и дополнительный командный синтаксис; сохраняет историю ввода во всех сеансах, подсвечивает и автоматически дополняет код. Веб-интерфейс отлично подходит для исследования и первичной обработки данных, тестирования первых версий кода и пошаговой отладки. Используя язык разметки markdown и библиотеки для визуализации, можно формировать аналитические отчеты прямо в браузере. Или преобразовать отчет в слайды HTML-презентации.
+С помощью Jupyterhub можно настроить совместную работу команды на сервере с корпоративной авторизацией. </t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>Библиотека предоставляет структуры данных и инструменты для анализа. Хороша в обработке неполных, неупорядоченных и немаркированных данных (как раз такие чаще всего и встречаются в жизни).
+Pandas позволяет заменить довольно сложные операции с данными на одну-две команды. Содержит много готовых методов группировки, фильтрации, объединения данных, а также возможность распознавания разных типов источников.</t>
+  </si>
+  <si>
+    <t>NumPy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основная библиотека Python, которая упрощает работу с векторами и матрицами. Содержит готовые методы для самых различных операций: от создания, изменения формы, умножения и расчета детерминанта матриц до решения линейных уравнений и сингулярного разложения. </t>
+  </si>
+  <si>
+    <t>SciPy</t>
+  </si>
+  <si>
+    <t>Библиотека основывается на NumPy и расширяет ее возможности. Включает методы линейной алгебры и методы для работы с вероятностными распределениями, интегральным исчислением и преобразованиями Фурье.</t>
+  </si>
+  <si>
+    <t>Matplotlib</t>
+  </si>
+  <si>
+    <t>Низкоуровневая библиотека для создания двумерных диаграмм и графиков. С ее помощью можно построить любой график. Однако для сложной визуализации потребуется больше кода, чем в продвинутых библиотеках.</t>
+  </si>
+  <si>
+    <t>Theano</t>
+  </si>
+  <si>
+    <t>Библиотека используется для оценки и улучшения математических выражений. Синтаксис, как и в NumPy. Проводит необходимые расчеты с большим объемом данных в 100 раз быстрее, чем CPU, так как использует GPU. За это и ценится теми, кто занимается глубоким обучением и сталкивается с вычислительными задачами.</t>
+  </si>
+  <si>
+    <t>TensorFlow</t>
+  </si>
+  <si>
+    <t>С++</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>Для обучения нейронных сетей. Используется для настройки, тренировки и применения искусственных нейронных сетей с многочисленными наборами данных.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Свободный open-source full-stack фреймворк. Он позволяет добавить большинство стандартных функций единым пакетом вместо поиска отдельных библиотек.
+Среди них — такие востребованные, как аутентификация, URL-маршрутизация, миграция схемы данных и т.п.
+</t>
+  </si>
+  <si>
+    <t>Pyramid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open-source фреймворк, который дает максимум возможностей разработчику с минимальными затратами времени и ресурсов.
+Наиболее интересная возможность фреймворка — работа как с большими, так и с малыми приложениями. Отдельно стоит выделить такие функции Pyramid, как:
+однофайловые приложения;
+генерация URL;
+масштабируемая конфигурация;
+гибкая схема аутентификации и авторизации;
+доступная пониманию техническая документация.
+</t>
+  </si>
+  <si>
+    <t>TurboGears</t>
+  </si>
+  <si>
+    <t>Open-source full-stack фреймворк для веб-приложений. Он позволяет разработчику быстро создавать расширяемые веб-приложения, управляемые данными. TurboGears поставляется с удобными шаблонами и мощным и гибким ORM.</t>
+  </si>
+  <si>
+    <t>Web2py</t>
+  </si>
+  <si>
+    <t> Масштабируемый open-source full-stack фреймворк для Python. Но прежде чем начать с ним работать, стоит запомнить, что с Python 3 он несовместим.</t>
+  </si>
+  <si>
+    <t>SFML</t>
+  </si>
+  <si>
+    <t>Одна из самых удобных и быстрых графических библиотек для 2D-графики. Её неоспоримое преимущество — минимальные требования к уровню знаний языка и лёгкость освоения: всего за несколько дней можно написать вполне себе полноценную программу. SFML библиотека используется по большей части небольшими стартапами и программистами, для которых создание игр — хобби. SFML популярен среди небольших команд благодаря тому, что не требует написания больших объёмов кода.</t>
+  </si>
+  <si>
+    <t>Qt</t>
+  </si>
+  <si>
+    <t>Qt представляет собой целый набор инструментов для быстрого и удобного проектирования GUI. Является быстрой, удобной, гибкой и кроссплатформенной.</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Библиотека для отрисовки векторных изображений под Linux, Windows и Mac OS.</t>
+  </si>
+  <si>
+    <t>Cocos2D-X</t>
+  </si>
+  <si>
+    <r>
+      <t>Кроссплатформенная библиотека</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> призванна упростить разработку мобильных игр. Поддерживает все те же платформы, что и Qt. Из плюсов стоит отметить доступность, удобство эксплуатации и создание отдельного конструктора игр, основанного на библиотеке Cocos Creator. </t>
+    </r>
+  </si>
+  <si>
+    <t>Juce</t>
+  </si>
+  <si>
+    <t>Кроссплатформенный фреймворк, предназначенный для создания приложений и плагинов на языке C++.</t>
+  </si>
+  <si>
+    <t>SDL 2.0</t>
+  </si>
+  <si>
+    <t>Кроссплатформенная 2D-библиотека, предназначенная для написания приложений (в основном игр). Поддерживаются Windows, Linux, Mac OS, а также Android, Windows Mobile и iOS. Преимущества библиотеки — быстрота, надёжность и лёгкость в эксплуатации. Также в библиотеке реализованы профессиональные инструменты для работы со звуком — это большой плюс при разработке крупных проектов.</t>
+  </si>
+  <si>
+    <t>CppCMS</t>
+  </si>
+  <si>
+    <t>Высокопроизводительный Веб-фреймворк на C++. Он спроектирован и настроен для поддержки экстремально высоких нагрузок.
+Он использует современный C++ как основной язык разработки для решения первоначальной задачи.
+Он предназначен для разработки как веб-сайтов, так и веб-сервисов.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,29 +309,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -112,20 +377,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -406,84 +769,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="61.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="243" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A20:A24"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A12"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="https://framework.zend.com/"/>
+    <hyperlink ref="D7" r:id="rId2" display="https://github.com/FriendsOfPHP/Goutte"/>
+    <hyperlink ref="D8" r:id="rId3" display="https://code.google.com/p/googchart/"/>
+    <hyperlink ref="D10" r:id="rId4" display="https://github.com/mjaschen/phpgeo"/>
+    <hyperlink ref="D11" r:id="rId5" display="http://geocoder-php.org/Geocoder/"/>
+    <hyperlink ref="B13" r:id="rId6" display="https://www.djangoproject.com/"/>
+    <hyperlink ref="B14" r:id="rId7" display="https://trypyramid.com/"/>
+    <hyperlink ref="B15" r:id="rId8" display="http://www.turbogears.org/"/>
+    <hyperlink ref="B16" r:id="rId9" display="http://www.web2py.com/"/>
+    <hyperlink ref="E21" r:id="rId10" display="https://www.qt.io/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/homework 09.11.19.xlsx
+++ b/homework 09.11.19.xlsx
@@ -300,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,14 +319,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -459,27 +451,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,6 +466,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,8 +754,8 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,339 +767,339 @@
     <col min="5" max="5" width="61.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="243" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:5" ht="230.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="1" t="s">
         <v>80</v>
       </c>
     </row>
